--- a/testing/test_data/test_zd_data.xlsx
+++ b/testing/test_data/test_zd_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="106">
   <si>
     <t>Updater name</t>
   </si>
@@ -80,6 +80,15 @@
     <t>46350</t>
   </si>
   <si>
+    <t>46800</t>
+  </si>
+  <si>
+    <t>2021-09-12</t>
+  </si>
+  <si>
+    <t>46803</t>
+  </si>
+  <si>
     <t>UK</t>
   </si>
   <si>
@@ -89,6 +98,21 @@
     <t>46769</t>
   </si>
   <si>
+    <t>46790</t>
+  </si>
+  <si>
+    <t>Boar's Head FBCO</t>
+  </si>
+  <si>
+    <t>S-004980.01.02.01</t>
+  </si>
+  <si>
+    <t>46793</t>
+  </si>
+  <si>
+    <t>46794</t>
+  </si>
+  <si>
     <t>Cargill Sidney</t>
   </si>
   <si>
@@ -110,6 +134,18 @@
     <t>46544</t>
   </si>
   <si>
+    <t>46795</t>
+  </si>
+  <si>
+    <t>Eli Lilly ASRS Synq</t>
+  </si>
+  <si>
+    <t>S-004950.01.02.01</t>
+  </si>
+  <si>
+    <t>46351</t>
+  </si>
+  <si>
     <t>Firmenich</t>
   </si>
   <si>
@@ -146,6 +182,12 @@
     <t>46352</t>
   </si>
   <si>
+    <t>46796</t>
+  </si>
+  <si>
+    <t>46798</t>
+  </si>
+  <si>
     <t>Problem</t>
   </si>
   <si>
@@ -197,6 +239,15 @@
     <t>46312</t>
   </si>
   <si>
+    <t>Shiseido</t>
+  </si>
+  <si>
+    <t>S-005370.01.02.01</t>
+  </si>
+  <si>
+    <t>46792</t>
+  </si>
+  <si>
     <t>Swisslog</t>
   </si>
   <si>
@@ -206,6 +257,9 @@
     <t>43943</t>
   </si>
   <si>
+    <t>45171</t>
+  </si>
+  <si>
     <t>Target T0590</t>
   </si>
   <si>
@@ -236,6 +290,12 @@
     <t>46495</t>
   </si>
   <si>
+    <t>46781</t>
+  </si>
+  <si>
+    <t>46802</t>
+  </si>
+  <si>
     <t>Target T3811</t>
   </si>
   <si>
@@ -251,10 +311,25 @@
     <t>46260</t>
   </si>
   <si>
+    <t>46720</t>
+  </si>
+  <si>
+    <t>2021-09-14</t>
+  </si>
+  <si>
+    <t>46797</t>
+  </si>
+  <si>
+    <t>46907</t>
+  </si>
+  <si>
     <t>Target T3892</t>
   </si>
   <si>
     <t>46380</t>
+  </si>
+  <si>
+    <t>46791</t>
   </si>
 </sst>
 </file>
@@ -325,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -537,16 +612,16 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>23</v>
       </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
       <c r="H8" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="9">
@@ -563,16 +638,16 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H9" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="10">
@@ -580,25 +655,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H10" t="n">
-        <v>62.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="11">
@@ -606,25 +681,25 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>27</v>
       </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H11" t="n">
-        <v>142.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="12">
@@ -632,25 +707,25 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H12" t="n">
-        <v>141.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="13">
@@ -658,10 +733,10 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -670,13 +745,13 @@
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H13" t="n">
-        <v>21.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="14">
@@ -684,10 +759,10 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -696,13 +771,13 @@
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" t="n">
-        <v>8.0</v>
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -710,25 +785,25 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="H15" t="n">
-        <v>2.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="16">
@@ -736,25 +811,25 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H16" t="n">
-        <v>81.0</v>
+        <v>142.0</v>
       </c>
     </row>
     <row r="17">
@@ -762,25 +837,25 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" t="s">
-        <v>9</v>
+        <v>38</v>
+      </c>
+      <c r="H17" t="n">
+        <v>141.0</v>
       </c>
     </row>
     <row r="18">
@@ -788,25 +863,25 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H18" t="n">
-        <v>6.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="19">
@@ -814,22 +889,22 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H19" t="s">
         <v>9</v>
@@ -840,10 +915,10 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -852,13 +927,13 @@
         <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H20" t="n">
-        <v>6.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="21">
@@ -866,10 +941,10 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
@@ -878,13 +953,13 @@
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H21" t="n">
-        <v>157.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="22">
@@ -892,10 +967,10 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -904,13 +979,13 @@
         <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H22" t="n">
-        <v>240.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="23">
@@ -918,10 +993,10 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
         <v>10</v>
@@ -930,13 +1005,13 @@
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H23" t="n">
-        <v>11.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="24">
@@ -944,25 +1019,25 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H24" t="n">
-        <v>60.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="25">
@@ -970,10 +1045,10 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -982,13 +1057,13 @@
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" t="n">
-        <v>60.0</v>
+        <v>23</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -996,25 +1071,25 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" t="n">
-        <v>132.0</v>
+        <v>14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -1022,25 +1097,25 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="H27" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="28">
@@ -1048,22 +1123,22 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
         <v>64</v>
       </c>
-      <c r="C28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" t="s">
-        <v>69</v>
-      </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
         <v>9</v>
@@ -1074,10 +1149,10 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
@@ -1086,13 +1161,13 @@
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H29" t="n">
-        <v>60.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="30">
@@ -1100,10 +1175,10 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
@@ -1112,13 +1187,13 @@
         <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H30" t="n">
-        <v>60.0</v>
+        <v>157.0</v>
       </c>
     </row>
     <row r="31">
@@ -1126,10 +1201,10 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D31" t="s">
         <v>10</v>
@@ -1138,13 +1213,13 @@
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
       </c>
       <c r="H31" t="n">
-        <v>60.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="32">
@@ -1152,25 +1227,25 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
         <v>74</v>
       </c>
-      <c r="C32" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" t="s">
-        <v>76</v>
-      </c>
       <c r="G32" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="H32" t="n">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="33">
@@ -1178,25 +1253,25 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H33" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="34">
@@ -1204,13 +1279,13 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
         <v>79</v>
-      </c>
-      <c r="C34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" t="s">
-        <v>10</v>
       </c>
       <c r="E34" t="s">
         <v>9</v>
@@ -1219,10 +1294,504 @@
         <v>80</v>
       </c>
       <c r="G34" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H34" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" t="n">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" t="n">
+        <v>180.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" t="n">
+        <v>132.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>87</v>
+      </c>
+      <c r="G41" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>89</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" t="n">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>93</v>
+      </c>
+      <c r="G45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>95</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G47" t="s">
+        <v>97</v>
+      </c>
+      <c r="H47" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>98</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" t="s">
+        <v>99</v>
+      </c>
+      <c r="G49" t="s">
+        <v>100</v>
+      </c>
+      <c r="H49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>101</v>
+      </c>
+      <c r="G50" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" t="n">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>102</v>
+      </c>
+      <c r="G51" t="s">
+        <v>100</v>
+      </c>
+      <c r="H51" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52" t="s">
+        <v>97</v>
+      </c>
+      <c r="H52" t="n">
         <v>183.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>105</v>
+      </c>
+      <c r="G53" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" t="n">
+        <v>46.0</v>
       </c>
     </row>
   </sheetData>
